--- a/dist/document/dest/2020/10/doctors/ttc.xlsx
+++ b/dist/document/dest/2020/10/doctors/ttc.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>250500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>68300</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
-        <v>420750</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="1">
-        <v>495000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>75</v>
       </c>
-      <c r="C7" s="1">
-        <v>270750</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>61350</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>60</v>
       </c>
-      <c r="C9" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>60</v>
       </c>
-      <c r="C10" s="1">
-        <v>331200</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>45100</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <v>80000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>227</v>
       </c>
-      <c r="C13" s="1">
-        <v>227000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -537,7 +501,7 @@
         <v>606</v>
       </c>
       <c r="C14" s="1">
-        <v>2632750</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/ttc.xlsx
+++ b/dist/document/dest/2020/10/doctors/ttc.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,90 +399,123 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Amlor 5mg Pfizer (Amlodipine)</v>
+        <v>Augmentin 1g (Amoxicillin+ kali clavulanate)</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>228700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>180</v>
+      </c>
+      <c r="C3" s="1">
+        <v>304200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Betadine Gar 1%  (SM)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C4" s="1">
+        <v>207900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cardival (Valsartan 80mg)</v>
+        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
       </c>
       <c r="B6" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Nolvadex-D(Tamoxifen 20mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>75</v>
+        <v>180</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1125000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
       </c>
+      <c r="C8" s="1">
+        <v>32250</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B9" s="1">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B10" s="1">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>27000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Mobic (Meloxicam) ( v) 7.5mg</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="13">
@@ -490,23 +523,37 @@
         <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B13" s="1">
-        <v>227</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
+        <v>Voltaren 75  (Diclofenac 75)</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B14" s="1">
-        <v>606</v>
-      </c>
-      <c r="C14" s="1">
-        <v>NaN</v>
+      <c r="B15" s="1">
+        <v>722</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2293050</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
   </ignoredErrors>
 </worksheet>
 </file>